--- a/EmployeeManagement/TestData/OrangeHRM_data.xlsx
+++ b/EmployeeManagement/TestData/OrangeHRM_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakeshro\Desktop\C# SESSION\AutomationFramework\EmployeeManagement\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30152F76-4FEB-4064-9935-80587585BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A169C-8332-4508-BFDE-B53E3106A8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="15540" windowHeight="10200" xr2:uid="{A17A9D2C-C91F-4AC8-A046-C90451374F11}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="15540" windowHeight="10200" activeTab="1" xr2:uid="{A17A9D2C-C91F-4AC8-A046-C90451374F11}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidLoginTest" sheetId="1" r:id="rId1"/>
+    <sheet name="AddValidEmployee" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -66,6 +67,42 @@
   </si>
   <si>
     <t>expectedError</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>Raghu123</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>middlename</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>employeename</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>wick</t>
+  </si>
+  <si>
+    <t>jack wick</t>
   </si>
 </sst>
 </file>
@@ -417,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AD82C-0198-459F-8771-48A2A194CF52}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,6 +511,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A712A-883A-4B8B-91A1-28A59988C9BA}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
